--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_129.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_129.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1113122171945701</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:00.340000', '0:00:04.840000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1801470588235294</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A/b3', 'A/3', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_241</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1578947368421053</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'A', 'E']]</t>
+          <t>[['G:sus4', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(65.369945, 71.679931)]</t>
+          <t>[['B:sus4', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(15.216, 32.669)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:40.826000', '0:01:46.710000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:26.140430', '0:00:31.051451')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1507321274763135</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2660098522167488</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(44.836, 52.013)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.446, 20.852)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:05.208150', '0:00:11.035850')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_80</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0298951048951049</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(103.94, 127.8)]</t>
+          <t>[['C:7', 'F', 'F'], ['F', 'F:7', 'Bb'], ['G:min7', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(149.0, 182.72)]</t>
+          <t>[('0:00:06.120000', '0:00:11.620000'), ('0:00:55.400000', '0:01:03.680000'), ('0:01:08.800000', '0:01:16.200000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:21.410000', '0:00:24.830000'), ('0:00:01.640000', '0:00:05.110000'), ('0:00:20.730000', '0:00:23.450000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_192</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1298920377867746</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['C', 'E', 'A:min', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(42.08, 57.88)]</t>
+          <t>[['C:maj', 'E/3', 'A:min', 'C:7/b7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(64.08, 70.34)]</t>
+          <t>[('0:01:09.817165', '0:01:16.725102')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:56.229000', '0:01:02.302000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1866125760649087</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E', 'B']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(53.551034, 60.67956)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(44.310045, 52.17)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:00:02.360000', '0:00:11.660000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.24, 13.86)]</t>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3535714285714285</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.525011, 16.557573)]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(129.38, 135.34)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:37.160000', '0:02:40.380000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1350574712643678</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
+          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3311965811965812</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4033613445378151</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D', 'D', 'D/7', 'D/6']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.24, 5.98), (1.0, 7.82)]</t>
+          <t>[['A', 'A', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(6.9, 15.82), (8.18, 18.18)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.325509', '0:00:03.756394')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:35.810988', '0:00:42.010716')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2757352941176471</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(55.18, 62.06)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2583333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(121.08, 122.36)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.743, 17.058)]</t>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2443181818181818</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C', 'G:7']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.04, 13.24)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C'], ['G', 'C', 'G/3']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(157.84, 160.98), (154.76, 159.84)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(27.476822, 35.056893), (18.826145, 26.43068)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.08709016393442623</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.58, 8.96)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(49.56, 55.72)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_45</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1515151515151515</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'G:min7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7/F#', 'G:maj', 'E:min7/G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(15.539, 22.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(81.8, 85.52)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
